--- a/src/test/resources/test_data_Export.xlsx
+++ b/src/test/resources/test_data_Export.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\THCT-course-template\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E788B8-472B-427A-A177-40E24CE28923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2214E779-EA0B-4F25-89C3-9805EE92E106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -48,7 +48,38 @@
     <t>user1</t>
   </si>
   <si>
+    <t>oemgalul</t>
+  </si>
+  <si>
+    <t>wut</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),"Logged")]"}
+  (Session info: chrome=120.0.6099.131)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'HOAPC', ip: '172.19.16.92', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_191'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.131, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\BAMBOO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50816}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ffabc41509179313d4dbdbaa5a69449f
+*** Element info: {Using=xpath, value=//a[contains(text(),"Logged")]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),"Logged")]"}
+  (Session info: chrome=120.0.6099.131)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'HOAPC', ip: '172.19.16.92', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_191'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.131, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\BAMBOO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50837}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5ef5e29aa710f8540ce00d39e7865260
+*** Element info: {Using=xpath, value=//a[contains(text(),"Logged")]}</t>
   </si>
 </sst>
 </file>
@@ -85,8 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,50 +412,90 @@
     <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="false"/>
     <col min="2" max="2" customWidth="true" width="19.0" collapsed="false"/>
     <col min="3" max="3" customWidth="true" width="18.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="30.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
+        <f>TEXT(ROW()-1,"#")</f>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A6" si="0">TEXT(ROW()-1,"#")</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test_data_Export.xlsx
+++ b/src/test/resources/test_data_Export.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\THCT-course-template\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2214E779-EA0B-4F25-89C3-9805EE92E106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D4C16D-3B5E-4E18-A467-7CC53D6A1A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -86,7 +86,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,10 +115,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,15 +406,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="30.42578125" collapsed="false"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="152.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -474,7 +476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -482,11 +484,11 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -494,7 +496,7 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/test/resources/test_data_Export.xlsx
+++ b/src/test/resources/test_data_Export.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\THCT-course-template\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D4C16D-3B5E-4E18-A467-7CC53D6A1A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2214E779-EA0B-4F25-89C3-9805EE92E106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -60,32 +60,14 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),"Logged")]"}
-  (Session info: chrome=120.0.6099.131)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'HOAPC', ip: '172.19.16.92', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_191'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.131, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\BAMBOO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50816}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: ffabc41509179313d4dbdbaa5a69449f
-*** Element info: {Using=xpath, value=//a[contains(text(),"Logged")]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),"Logged")]"}
-  (Session info: chrome=120.0.6099.131)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'HOAPC', ip: '172.19.16.92', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_191'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.131, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\BAMBOO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50837}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 5ef5e29aa710f8540ce00d39e7865260
-*** Element info: {Using=xpath, value=//a[contains(text(),"Logged")]}</t>
+    <t>Expected condition failed: waiting for visibility of element located by By.xpath: //a[contains(text(),"Logged")] (tried for 10 second(s) with 500 milliseconds interval)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,13 +97,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,15 +385,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="152.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="30.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,7 +455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -484,11 +463,11 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -496,8 +475,8 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test_data_Export.xlsx
+++ b/src/test/resources/test_data_Export.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\THCT-course-template\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D4C16D-3B5E-4E18-A467-7CC53D6A1A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2214E779-EA0B-4F25-89C3-9805EE92E106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -61,24 +61,24 @@
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),"Logged")]"}
-  (Session info: chrome=120.0.6099.131)
+  (Session info: chrome=120.0.6099.217)
 For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'HOAPC', ip: '172.19.16.92', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_191'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.131, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\BAMBOO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50816}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: ffabc41509179313d4dbdbaa5a69449f
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.217, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\BAMBOO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64932}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 048983f758942d4b0a89c24a2b853120
 *** Element info: {Using=xpath, value=//a[contains(text(),"Logged")]}</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),"Logged")]"}
-  (Session info: chrome=120.0.6099.131)
+  (Session info: chrome=120.0.6099.217)
 For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'HOAPC', ip: '172.19.16.92', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_191'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.131, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\BAMBOO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50837}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 5ef5e29aa710f8540ce00d39e7865260
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.217, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Users\BAMBOO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64953}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1af358b57fd1e65c23b9c90206f44c83
 *** Element info: {Using=xpath, value=//a[contains(text(),"Logged")]}</t>
   </si>
 </sst>
@@ -86,6 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,13 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,15 +404,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="152.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="30.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,7 +474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -484,19 +482,21 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5"/>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B6"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
